--- a/AIR_NZ_investment_thesis.xlsx
+++ b/AIR_NZ_investment_thesis.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-10-04 03:43:12</t>
+          <t>2025-10-04 03:45:04</t>
         </is>
       </c>
     </row>
